--- a/京剧尖团及字频统计.xlsx
+++ b/京剧尖团及字频统计.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesley\Google 云端硬盘\Sync\京昆\pdf\昆\简谱\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E8738-0242-4DCA-B783-726D44DCDC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E75AAD-B32F-44A8-B9BE-B55CCC574557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="281" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="281" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="尖团" sheetId="1" r:id="rId1"/>
-    <sheet name="字频" sheetId="2" r:id="rId2"/>
+    <sheet name="尖" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="字频" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6343" uniqueCount="6155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="6487">
   <si>
     <t>顺序</t>
   </si>
@@ -18500,7 +18501,1004 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京剧尖团字统计，总计285个</t>
+    <t>京剧尖字统计，总计285个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖团</t>
+  </si>
+  <si>
+    <t>去</t>
+  </si>
+  <si>
+    <t>团</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>见</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>军</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>吓</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>贤</t>
+  </si>
+  <si>
+    <t>计</t>
+  </si>
+  <si>
+    <t>讲</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>气</t>
+  </si>
+  <si>
+    <t>驾</t>
+  </si>
+  <si>
+    <t>岂</t>
+  </si>
+  <si>
+    <t>启</t>
+  </si>
+  <si>
+    <t>救</t>
+  </si>
+  <si>
+    <t>给</t>
+  </si>
+  <si>
+    <t>雄</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>喜</t>
+  </si>
+  <si>
+    <t>几</t>
+  </si>
+  <si>
+    <t>交</t>
+  </si>
+  <si>
+    <t>秦</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>尽</t>
+  </si>
+  <si>
+    <t>求</t>
+  </si>
+  <si>
+    <t>降</t>
+  </si>
+  <si>
+    <t>卿</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>奸</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>许</t>
+  </si>
+  <si>
+    <t>急</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>仇</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
+    <t>间</t>
+  </si>
+  <si>
+    <t>紧</t>
+  </si>
+  <si>
+    <t>现</t>
+  </si>
+  <si>
+    <t>却</t>
+  </si>
+  <si>
+    <t>其</t>
+  </si>
+  <si>
+    <t>兴</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>结</t>
+  </si>
+  <si>
+    <t>晓</t>
+  </si>
+  <si>
+    <t>幸</t>
+  </si>
+  <si>
+    <t>惊</t>
+  </si>
+  <si>
+    <t>孝</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>擒</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>久</t>
+  </si>
+  <si>
+    <t>乡</t>
+  </si>
+  <si>
+    <t>献</t>
+  </si>
+  <si>
+    <t>甲</t>
+  </si>
+  <si>
+    <t>劝</t>
+  </si>
+  <si>
+    <t>旗</t>
+  </si>
+  <si>
+    <t>居</t>
+  </si>
+  <si>
+    <t>敬</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>竟</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>奇</t>
+  </si>
+  <si>
+    <t>经</t>
+  </si>
+  <si>
+    <t>荆</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>欺</t>
+  </si>
+  <si>
+    <t>记</t>
+  </si>
+  <si>
+    <t>举</t>
+  </si>
+  <si>
+    <t>血</t>
+  </si>
+  <si>
+    <t>己</t>
+  </si>
+  <si>
+    <t>闲</t>
+  </si>
+  <si>
+    <t>权</t>
+  </si>
+  <si>
+    <t>巧</t>
+  </si>
+  <si>
+    <t>歇</t>
+  </si>
+  <si>
+    <t>轻</t>
+  </si>
+  <si>
+    <t>监</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>皆</t>
+  </si>
+  <si>
+    <t>街</t>
+  </si>
+  <si>
+    <t>期</t>
+  </si>
+  <si>
+    <t>吉</t>
+  </si>
+  <si>
+    <t>锦</t>
+  </si>
+  <si>
+    <t>刑</t>
+  </si>
+  <si>
+    <t>觉</t>
+  </si>
+  <si>
+    <t>桥</t>
+  </si>
+  <si>
+    <t>景</t>
+  </si>
+  <si>
+    <t>响</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>舅</t>
+  </si>
+  <si>
+    <t>险</t>
+  </si>
+  <si>
+    <t>凶</t>
+  </si>
+  <si>
+    <t>近</t>
+  </si>
+  <si>
+    <t>纪</t>
+  </si>
+  <si>
+    <t>庆</t>
+  </si>
+  <si>
+    <t>杰</t>
+  </si>
+  <si>
+    <t>校</t>
+  </si>
+  <si>
+    <t>骑</t>
+  </si>
+  <si>
+    <t>显</t>
+  </si>
+  <si>
+    <t>弃</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>姜</t>
+  </si>
+  <si>
+    <t>戏</t>
+  </si>
+  <si>
+    <t>轿</t>
+  </si>
+  <si>
+    <t>贾</t>
+  </si>
+  <si>
+    <t>极</t>
+  </si>
+  <si>
+    <t>界</t>
+  </si>
+  <si>
+    <t>基</t>
+  </si>
+  <si>
+    <t>虚</t>
+  </si>
+  <si>
+    <t>胸</t>
+  </si>
+  <si>
+    <t>疆</t>
+  </si>
+  <si>
+    <t>嫁</t>
+  </si>
+  <si>
+    <t>佳</t>
+  </si>
+  <si>
+    <t>旧</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>禁</t>
+  </si>
+  <si>
+    <t>穷</t>
+  </si>
+  <si>
+    <t>劫</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>享</t>
+  </si>
+  <si>
+    <t>效</t>
+  </si>
+  <si>
+    <t>屈</t>
+  </si>
+  <si>
+    <t>玄</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>姣</t>
+  </si>
+  <si>
+    <t>琼</t>
+  </si>
+  <si>
+    <t>决</t>
+  </si>
+  <si>
+    <t>悬</t>
+  </si>
+  <si>
+    <t>继</t>
+  </si>
+  <si>
+    <t>姬</t>
+  </si>
+  <si>
+    <t>乾</t>
+  </si>
+  <si>
+    <t>娇</t>
+  </si>
+  <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>项</t>
+  </si>
+  <si>
+    <t>钦</t>
+  </si>
+  <si>
+    <t>角</t>
+  </si>
+  <si>
+    <t>惧</t>
+  </si>
+  <si>
+    <t>脚</t>
+  </si>
+  <si>
+    <t>饥</t>
+  </si>
+  <si>
+    <t>乞</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>级</t>
+  </si>
+  <si>
+    <t>勤</t>
+  </si>
+  <si>
+    <t>训</t>
+  </si>
+  <si>
+    <t>境</t>
+  </si>
+  <si>
+    <t>霞</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>击</t>
+  </si>
+  <si>
+    <t>拳</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>勋</t>
+  </si>
+  <si>
+    <t>陷</t>
+  </si>
+  <si>
+    <t>谨</t>
+  </si>
+  <si>
+    <t>郊</t>
+  </si>
+  <si>
+    <t>鞋</t>
+  </si>
+  <si>
+    <t>革</t>
+  </si>
+  <si>
+    <t>乔</t>
+  </si>
+  <si>
+    <t>眷</t>
+  </si>
+  <si>
+    <t>缺</t>
+  </si>
+  <si>
+    <t>嫌</t>
+  </si>
+  <si>
+    <t>倾</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>镜</t>
+  </si>
+  <si>
+    <t>曲</t>
+  </si>
+  <si>
+    <t>喧</t>
+  </si>
+  <si>
+    <t>限</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t>巾</t>
+  </si>
+  <si>
+    <t>涓</t>
+  </si>
+  <si>
+    <t>牵</t>
+  </si>
+  <si>
+    <t>蛟</t>
+  </si>
+  <si>
+    <t>饷</t>
+  </si>
+  <si>
+    <t>据</t>
+  </si>
+  <si>
+    <t>介</t>
+  </si>
+  <si>
+    <t>价</t>
+  </si>
+  <si>
+    <t>季</t>
+  </si>
+  <si>
+    <t>谏</t>
+  </si>
+  <si>
+    <t>简</t>
+  </si>
+  <si>
+    <t>欠</t>
+  </si>
+  <si>
+    <t>熊</t>
+  </si>
+  <si>
+    <t>较</t>
+  </si>
+  <si>
+    <t>阶</t>
+  </si>
+  <si>
+    <t>瑾</t>
+  </si>
+  <si>
+    <t>戟</t>
+  </si>
+  <si>
+    <t>系</t>
+  </si>
+  <si>
+    <t>器</t>
+  </si>
+  <si>
+    <t>畜</t>
+  </si>
+  <si>
+    <t>寄</t>
+  </si>
+  <si>
+    <t>裙</t>
+  </si>
+  <si>
+    <t>穴</t>
+  </si>
+  <si>
+    <t>忌</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>锏</t>
+  </si>
+  <si>
+    <t>架</t>
+  </si>
+  <si>
+    <t>捐</t>
+  </si>
+  <si>
+    <t>唬</t>
+  </si>
+  <si>
+    <t>戒</t>
+  </si>
+  <si>
+    <t>搅</t>
+  </si>
+  <si>
+    <t>激</t>
+  </si>
+  <si>
+    <t>谦</t>
+  </si>
+  <si>
+    <t>径</t>
+  </si>
+  <si>
+    <t>坚</t>
+  </si>
+  <si>
+    <t>敲</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>潭</t>
+  </si>
+  <si>
+    <t>侠</t>
+  </si>
+  <si>
+    <t>嘉</t>
+  </si>
+  <si>
+    <t>夹</t>
+  </si>
+  <si>
+    <t>腔</t>
+  </si>
+  <si>
+    <t>稽</t>
+  </si>
+  <si>
+    <t>棋</t>
+  </si>
+  <si>
+    <t>骁</t>
+  </si>
+  <si>
+    <t>臭</t>
+  </si>
+  <si>
+    <t>具</t>
+  </si>
+  <si>
+    <t>顷</t>
+  </si>
+  <si>
+    <t>妓</t>
+  </si>
+  <si>
+    <t>朽</t>
+  </si>
+  <si>
+    <t>稀</t>
+  </si>
+  <si>
+    <t>柜</t>
+  </si>
+  <si>
+    <t>溪</t>
+  </si>
+  <si>
+    <t>倦</t>
+  </si>
+  <si>
+    <t>究</t>
+  </si>
+  <si>
+    <t>枷</t>
+  </si>
+  <si>
+    <t>协</t>
+  </si>
+  <si>
+    <t>貅</t>
+  </si>
+  <si>
+    <t>怯</t>
+  </si>
+  <si>
+    <t>均</t>
+  </si>
+  <si>
+    <t>缰</t>
+  </si>
+  <si>
+    <t>邱</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>矩</t>
+  </si>
+  <si>
+    <t>龟</t>
+  </si>
+  <si>
+    <t>巷</t>
+  </si>
+  <si>
+    <t>冀</t>
+  </si>
+  <si>
+    <t>兼</t>
+  </si>
+  <si>
+    <t>圈</t>
+  </si>
+  <si>
+    <t>杏</t>
+  </si>
+  <si>
+    <t>靴</t>
+  </si>
+  <si>
+    <t>恰</t>
+  </si>
+  <si>
+    <t>咸</t>
+  </si>
+  <si>
+    <t>阙</t>
+  </si>
+  <si>
+    <t>携</t>
+  </si>
+  <si>
+    <t>襟</t>
+  </si>
+  <si>
+    <t>劲</t>
+  </si>
+  <si>
+    <t>兮</t>
+  </si>
+  <si>
+    <t>禽</t>
+  </si>
+  <si>
+    <t>逊</t>
+  </si>
+  <si>
+    <t>鉴</t>
+  </si>
+  <si>
+    <t>柬</t>
+  </si>
+  <si>
+    <t>躯</t>
+  </si>
+  <si>
+    <t>肩</t>
+  </si>
+  <si>
+    <t>瞎</t>
+  </si>
+  <si>
+    <t>驱</t>
+  </si>
+  <si>
+    <t>侥</t>
+  </si>
+  <si>
+    <t>擎</t>
+  </si>
+  <si>
+    <t>检</t>
+  </si>
+  <si>
+    <t>弦</t>
+  </si>
+  <si>
+    <t>绛</t>
+  </si>
+  <si>
+    <t>兢</t>
+  </si>
+  <si>
+    <t>希</t>
+  </si>
+  <si>
+    <t>拒</t>
+  </si>
+  <si>
+    <t>祁</t>
+  </si>
+  <si>
+    <t>涧</t>
+  </si>
+  <si>
+    <t>宪</t>
+  </si>
+  <si>
+    <t>歆</t>
+  </si>
+  <si>
+    <t>续</t>
+  </si>
+  <si>
+    <t>筋</t>
+  </si>
+  <si>
+    <t>玺</t>
+  </si>
+  <si>
+    <t>揭</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>竭</t>
+  </si>
+  <si>
+    <t>暇</t>
+  </si>
+  <si>
+    <t>衔</t>
+  </si>
+  <si>
+    <t>巨</t>
+  </si>
+  <si>
+    <t>祈</t>
+  </si>
+  <si>
+    <t>喈</t>
+  </si>
+  <si>
+    <t>浇</t>
+  </si>
+  <si>
+    <t>钧</t>
+  </si>
+  <si>
+    <t>萱</t>
+  </si>
+  <si>
+    <t>契</t>
+  </si>
+  <si>
+    <t>荥</t>
+  </si>
+  <si>
+    <t>娟</t>
+  </si>
+  <si>
+    <t>麒</t>
+  </si>
+  <si>
+    <t>琪</t>
+  </si>
+  <si>
+    <t>局</t>
+  </si>
+  <si>
+    <t>拘</t>
+  </si>
+  <si>
+    <t>欣</t>
+  </si>
+  <si>
+    <t>跷</t>
+  </si>
+  <si>
+    <t>健</t>
+  </si>
+  <si>
+    <t>噤</t>
+  </si>
+  <si>
+    <t>蹊</t>
+  </si>
+  <si>
+    <t>偕</t>
+  </si>
+  <si>
+    <t>虬</t>
+  </si>
+  <si>
+    <t>诩</t>
+  </si>
+  <si>
+    <t>俟</t>
+  </si>
+  <si>
+    <t>狡</t>
+  </si>
+  <si>
+    <t>艰</t>
+  </si>
+  <si>
+    <t>嘻</t>
+  </si>
+  <si>
+    <t>匈</t>
+  </si>
+  <si>
+    <t>琦</t>
+  </si>
+  <si>
+    <t>轩</t>
+  </si>
+  <si>
+    <t>绞</t>
+  </si>
+  <si>
+    <t>鹃</t>
+  </si>
+  <si>
+    <t>醺</t>
+  </si>
+  <si>
+    <t>辖</t>
+  </si>
+  <si>
+    <t>厥</t>
+  </si>
+  <si>
+    <t>岐</t>
+  </si>
+  <si>
+    <t>缴</t>
+  </si>
+  <si>
+    <t>捡</t>
+  </si>
+  <si>
+    <t>洁</t>
+  </si>
+  <si>
+    <t>玑</t>
+  </si>
+  <si>
+    <t>矶</t>
+  </si>
+  <si>
+    <t>羌</t>
+  </si>
+  <si>
+    <t>谐</t>
+  </si>
+  <si>
+    <t>崎</t>
+  </si>
+  <si>
+    <t>匣</t>
+  </si>
+  <si>
+    <t>京剧尖团字统计，计频率前500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18509,9 +19507,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -18549,6 +19547,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="KaiTi"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -18558,7 +19563,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -18606,11 +19611,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -18641,10 +19655,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18966,8 +20007,8 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21975,11 +23016,7522 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24017465-6BEF-4779-B1F9-1BF43EB1BEB2}">
+  <dimension ref="A1:N452"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="12"/>
+    <col min="6" max="6" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="12"/>
+    <col min="11" max="11" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>6486</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>6155</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>6155</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6156</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="F3" s="14">
+        <v>51</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>6184</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I3" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K3" s="14">
+        <v>101</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>6217</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="14">
+        <v>52</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>102</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>6218</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>6158</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="14">
+        <v>53</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>6185</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K5" s="14">
+        <v>103</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6159</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="14">
+        <v>54</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>6186</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K6" s="14">
+        <v>104</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6160</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="F7" s="14">
+        <v>55</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>6187</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="14">
+        <v>105</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>6219</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="14">
+        <v>56</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>6188</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="14">
+        <v>106</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>6220</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="F9" s="14">
+        <v>57</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K9" s="14">
+        <v>107</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="F10" s="14">
+        <v>58</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>6189</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="14">
+        <v>108</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>6221</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="F11" s="14">
+        <v>59</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>6190</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K11" s="14">
+        <v>109</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>6222</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="F12" s="14">
+        <v>60</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="14">
+        <v>110</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.32</v>
+      </c>
+      <c r="F13" s="14">
+        <v>61</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>6191</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K13" s="14">
+        <v>111</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F14" s="14">
+        <v>62</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>6192</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K14" s="14">
+        <v>112</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="F15" s="14">
+        <v>63</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>6193</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="14">
+        <v>113</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>6223</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>6163</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="F16" s="14">
+        <v>64</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>6194</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K16" s="14">
+        <v>114</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>6224</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N16" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="F17" s="14">
+        <v>65</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>6195</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="14">
+        <v>115</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>6225</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>66</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>6196</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="14">
+        <v>116</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>6226</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>6164</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="F19" s="14">
+        <v>67</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="14">
+        <v>117</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.19</v>
+      </c>
+      <c r="F20" s="14">
+        <v>68</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>6197</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="14">
+        <v>118</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>6227</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="F21" s="14">
+        <v>69</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>6198</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="14">
+        <v>119</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>6166</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F22" s="14">
+        <v>70</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>6199</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K22" s="14">
+        <v>120</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>6228</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F23" s="14">
+        <v>71</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K23" s="14">
+        <v>121</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>6167</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F24" s="14">
+        <v>72</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="14">
+        <v>122</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>6229</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N24" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>6168</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="14">
+        <v>73</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>6200</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="K25" s="14">
+        <v>123</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>6230</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>6169</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="14">
+        <v>74</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="14">
+        <v>124</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27" s="14">
+        <v>75</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>6201</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K27" s="14">
+        <v>125</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>6231</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F28" s="14">
+        <v>76</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K28" s="14">
+        <v>126</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>6232</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N28" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>77</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>6202</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K29" s="14">
+        <v>127</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>6233</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F30" s="14">
+        <v>78</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>6203</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K30" s="14">
+        <v>128</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>6234</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F31" s="14">
+        <v>79</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>6204</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K31" s="14">
+        <v>129</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>6235</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N31" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>6170</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F32" s="14">
+        <v>80</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K32" s="14">
+        <v>130</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>6236</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N32" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F33" s="14">
+        <v>81</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K33" s="14">
+        <v>131</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.11</v>
+      </c>
+      <c r="F34" s="14">
+        <v>82</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>6205</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K34" s="14">
+        <v>132</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>6237</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N34" s="15">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>83</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K35" s="14">
+        <v>133</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>6172</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>84</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>6206</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K36" s="14">
+        <v>134</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>6238</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>6173</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="14">
+        <v>85</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K37" s="14">
+        <v>135</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>86</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K38" s="14">
+        <v>136</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>6239</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N38" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>6175</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>87</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K39" s="14">
+        <v>137</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>6240</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>6176</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="F40" s="14">
+        <v>88</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>6207</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K40" s="14">
+        <v>138</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>6241</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N40" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="F41" s="14">
+        <v>89</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>6208</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K41" s="14">
+        <v>139</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>6242</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F42" s="14">
+        <v>90</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>6209</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K42" s="14">
+        <v>140</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>6243</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N42" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>6177</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="F43" s="14">
+        <v>91</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>6210</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K43" s="14">
+        <v>141</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>6244</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F44" s="14">
+        <v>92</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>6211</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K44" s="14">
+        <v>142</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>6245</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N44" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>6178</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D45" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F45" s="14">
+        <v>93</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>6212</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K45" s="14">
+        <v>143</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>44</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>6179</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D46" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F46" s="14">
+        <v>94</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>6213</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K46" s="14">
+        <v>144</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>6246</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>6180</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D47" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F47" s="14">
+        <v>95</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K47" s="14">
+        <v>145</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>6247</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>46</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F48" s="14">
+        <v>96</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K48" s="14">
+        <v>146</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>6248</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N48" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>47</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>6181</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D49" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>97</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K49" s="14">
+        <v>147</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>6249</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N49" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>48</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D50" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="14">
+        <v>98</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>6214</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="K50" s="14">
+        <v>148</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>6250</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>49</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F51" s="14">
+        <v>99</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>6215</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="K51" s="14">
+        <v>149</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N51" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>50</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>6183</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D52" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F52" s="14">
+        <v>100</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>6216</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="K52" s="14">
+        <v>150</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>6251</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>151</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>6252</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F53" s="14">
+        <v>204</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>6283</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="14">
+        <v>257</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>6319</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>152</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D54" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F54" s="14">
+        <v>205</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="14">
+        <v>258</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>6320</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N54" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>153</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>6254</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F55" s="14">
+        <v>206</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K55" s="14">
+        <v>259</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>6321</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>154</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F56" s="14">
+        <v>207</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>6284</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K56" s="14">
+        <v>260</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>6322</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>155</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F57" s="14">
+        <v>208</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="14">
+        <v>261</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>156</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>6255</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F58" s="14">
+        <v>209</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>6285</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K58" s="14">
+        <v>262</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N58" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>157</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>6256</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F59" s="14">
+        <v>210</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K59" s="14">
+        <v>263</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>6323</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N59" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>158</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F60" s="14">
+        <v>211</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>6286</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K60" s="14">
+        <v>264</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N60" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>159</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F61" s="14">
+        <v>212</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>6287</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K61" s="14">
+        <v>265</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>6324</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N61" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>160</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>6257</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F62" s="14">
+        <v>213</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>6288</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K62" s="14">
+        <v>266</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>6325</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N62" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>161</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F63" s="14">
+        <v>214</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>6289</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K63" s="14">
+        <v>267</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>6326</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N63" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>162</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>6258</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D64" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F64" s="14">
+        <v>215</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>6290</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K64" s="14">
+        <v>268</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>6327</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N64" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>163</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F65" s="14">
+        <v>216</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>6291</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K65" s="14">
+        <v>269</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>6328</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N65" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>164</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F66" s="14">
+        <v>217</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>6292</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K66" s="14">
+        <v>270</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>6329</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>165</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>6259</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F67" s="14">
+        <v>218</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K67" s="14">
+        <v>271</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>6330</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N67" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>166</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>6260</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F68" s="14">
+        <v>219</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K68" s="14">
+        <v>272</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>6331</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>167</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>6261</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D69" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F69" s="14">
+        <v>220</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>6293</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I69" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K69" s="14">
+        <v>273</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N69" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>168</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>6262</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D70" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F70" s="14">
+        <v>221</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>6294</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K70" s="14">
+        <v>274</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N70" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>169</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>6263</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D71" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F71" s="14">
+        <v>222</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K71" s="14">
+        <v>275</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>6332</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N71" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>170</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D72" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F72" s="14">
+        <v>223</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>6295</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I72" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K72" s="14">
+        <v>276</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N72" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
+        <v>171</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F73" s="14">
+        <v>224</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>6296</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K73" s="14">
+        <v>277</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N73" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>172</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F74" s="14">
+        <v>225</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>6297</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K74" s="14">
+        <v>278</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>6333</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N74" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>173</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>6265</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D75" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F75" s="14">
+        <v>226</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K75" s="14">
+        <v>279</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N75" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>174</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F76" s="14">
+        <v>227</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>6298</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K76" s="14">
+        <v>280</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>6334</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N76" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>175</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>6266</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F77" s="14">
+        <v>228</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>6299</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K77" s="14">
+        <v>281</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>176</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>6267</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F78" s="14">
+        <v>229</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K78" s="14">
+        <v>282</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N78" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="14">
+        <v>177</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>6268</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D79" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F79" s="14">
+        <v>230</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>6300</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K79" s="14">
+        <v>283</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>6335</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="14">
+        <v>178</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>6269</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D80" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F80" s="14">
+        <v>231</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>6301</v>
+      </c>
+      <c r="H80" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K80" s="14">
+        <v>284</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N80" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="14">
+        <v>179</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>6270</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F81" s="14">
+        <v>232</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>6302</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K81" s="14">
+        <v>285</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>6336</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N81" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>180</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F82" s="14">
+        <v>233</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>6303</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K82" s="14">
+        <v>286</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>6337</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N82" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>181</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>6271</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D83" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F83" s="14">
+        <v>234</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>6304</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K83" s="14">
+        <v>287</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>6338</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N83" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>182</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F84" s="14">
+        <v>235</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>6305</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K84" s="14">
+        <v>288</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>6339</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>183</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F85" s="14">
+        <v>236</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K85" s="14">
+        <v>289</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>6340</v>
+      </c>
+      <c r="M85" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>184</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F86" s="14">
+        <v>237</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>6306</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K86" s="14">
+        <v>290</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M86" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N86" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>185</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F87" s="14">
+        <v>238</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>6307</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K87" s="14">
+        <v>291</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M87" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N87" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>186</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F88" s="14">
+        <v>239</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K88" s="14">
+        <v>292</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M88" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N88" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>187</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F89" s="14">
+        <v>240</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>6308</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I89" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K89" s="14">
+        <v>293</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>6341</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N89" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>188</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>6272</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F90" s="14">
+        <v>241</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>6309</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K90" s="14">
+        <v>294</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>6342</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N90" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="14">
+        <v>189</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>6273</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D91" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F91" s="14">
+        <v>242</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K91" s="14">
+        <v>295</v>
+      </c>
+      <c r="L91" s="14" t="s">
+        <v>6343</v>
+      </c>
+      <c r="M91" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N91" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="14">
+        <v>190</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>6274</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F92" s="14">
+        <v>243</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I92" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K92" s="14">
+        <v>296</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>6344</v>
+      </c>
+      <c r="M92" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N92" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="14">
+        <v>191</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>6275</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F93" s="14">
+        <v>244</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>6310</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K93" s="14">
+        <v>297</v>
+      </c>
+      <c r="L93" s="14" t="s">
+        <v>6345</v>
+      </c>
+      <c r="M93" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N93" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="14">
+        <v>192</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>6276</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F94" s="14">
+        <v>245</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>6311</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K94" s="14">
+        <v>298</v>
+      </c>
+      <c r="L94" s="14" t="s">
+        <v>6346</v>
+      </c>
+      <c r="M94" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N94" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="14">
+        <v>193</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F95" s="14">
+        <v>246</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>6312</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K95" s="14">
+        <v>299</v>
+      </c>
+      <c r="L95" s="14" t="s">
+        <v>6347</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N95" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="14">
+        <v>194</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F96" s="14">
+        <v>247</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>6313</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K96" s="14">
+        <v>300</v>
+      </c>
+      <c r="L96" s="14" t="s">
+        <v>6348</v>
+      </c>
+      <c r="M96" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N96" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="14">
+        <v>195</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>6277</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D97" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F97" s="14">
+        <v>248</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K97" s="14">
+        <v>301</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N97" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="14">
+        <v>196</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F98" s="14">
+        <v>249</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>6314</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I98" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K98" s="14">
+        <v>302</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>6349</v>
+      </c>
+      <c r="M98" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N98" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="14">
+        <v>197</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>6278</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D99" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F99" s="14">
+        <v>250</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>6315</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I99" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K99" s="14">
+        <v>303</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>6350</v>
+      </c>
+      <c r="M99" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N99" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="14">
+        <v>198</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D100" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F100" s="14">
+        <v>251</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I100" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K100" s="14">
+        <v>304</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>6351</v>
+      </c>
+      <c r="M100" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N100" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="14">
+        <v>199</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>6280</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F101" s="14">
+        <v>252</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I101" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K101" s="14">
+        <v>305</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N101" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="14">
+        <v>200</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>6281</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D102" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F102" s="14">
+        <v>253</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I102" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K102" s="14">
+        <v>306</v>
+      </c>
+      <c r="L102" s="14" t="s">
+        <v>6352</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N102" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="14">
+        <v>201</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F103" s="14">
+        <v>254</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>6316</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I103" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K103" s="14">
+        <v>307</v>
+      </c>
+      <c r="L103" s="14" t="s">
+        <v>6353</v>
+      </c>
+      <c r="M103" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N103" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="14">
+        <v>202</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>6282</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D104" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F104" s="14">
+        <v>255</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>6317</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I104" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K104" s="14">
+        <v>308</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M104" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N104" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="14">
+        <v>203</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F105" s="14">
+        <v>256</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>6318</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I105" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="K105" s="14">
+        <v>309</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>6354</v>
+      </c>
+      <c r="M105" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N105" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="14">
+        <v>310</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F106" s="14">
+        <v>363</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K106" s="14">
+        <v>416</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N106" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="14">
+        <v>311</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>6355</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D107" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F107" s="14">
+        <v>364</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K107" s="14">
+        <v>417</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>6422</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N107" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="14">
+        <v>312</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F108" s="14">
+        <v>365</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>6391</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K108" s="14">
+        <v>418</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>6423</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N108" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="14">
+        <v>313</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>6356</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D109" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F109" s="14">
+        <v>366</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K109" s="14">
+        <v>419</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>6424</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N109" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="14">
+        <v>314</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>6357</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F110" s="14">
+        <v>367</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K110" s="14">
+        <v>420</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>6425</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N110" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="14">
+        <v>315</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F111" s="14">
+        <v>368</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>6392</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I111" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K111" s="14">
+        <v>421</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M111" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N111" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="14">
+        <v>316</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F112" s="14">
+        <v>369</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K112" s="14">
+        <v>422</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N112" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="14">
+        <v>317</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>6358</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D113" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F113" s="14">
+        <v>370</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>6393</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K113" s="14">
+        <v>423</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>6426</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N113" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="14">
+        <v>318</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="14">
+        <v>371</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K114" s="14">
+        <v>424</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M114" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N114" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="14">
+        <v>319</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F115" s="14">
+        <v>372</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>6394</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I115" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K115" s="14">
+        <v>425</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>6427</v>
+      </c>
+      <c r="M115" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N115" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="14">
+        <v>320</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" s="14">
+        <v>373</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>6395</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K116" s="14">
+        <v>426</v>
+      </c>
+      <c r="L116" s="14" t="s">
+        <v>6428</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N116" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="14">
+        <v>321</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" s="14">
+        <v>374</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I117" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K117" s="14">
+        <v>427</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N117" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="14">
+        <v>322</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>6360</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F118" s="14">
+        <v>375</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>6396</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I118" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K118" s="14">
+        <v>428</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>6429</v>
+      </c>
+      <c r="M118" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N118" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="14">
+        <v>323</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>6361</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F119" s="14">
+        <v>376</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>6397</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I119" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K119" s="14">
+        <v>429</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>6430</v>
+      </c>
+      <c r="M119" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N119" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="14">
+        <v>324</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F120" s="14">
+        <v>377</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>6398</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K120" s="14">
+        <v>430</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>6431</v>
+      </c>
+      <c r="M120" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N120" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="14">
+        <v>325</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="14">
+        <v>378</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I121" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K121" s="14">
+        <v>431</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M121" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N121" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="14">
+        <v>326</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>6362</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="14">
+        <v>379</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>6399</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I122" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K122" s="14">
+        <v>432</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N122" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="14">
+        <v>327</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>6363</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" s="14">
+        <v>380</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>6400</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I123" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K123" s="14">
+        <v>433</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M123" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N123" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="14">
+        <v>328</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>6364</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F124" s="14">
+        <v>381</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>6401</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I124" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K124" s="14">
+        <v>434</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>6432</v>
+      </c>
+      <c r="M124" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N124" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="14">
+        <v>329</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F125" s="14">
+        <v>382</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>6402</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I125" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K125" s="14">
+        <v>435</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>6433</v>
+      </c>
+      <c r="M125" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N125" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="14">
+        <v>330</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>6366</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F126" s="14">
+        <v>383</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>6403</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I126" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K126" s="14">
+        <v>436</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>6434</v>
+      </c>
+      <c r="M126" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N126" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="14">
+        <v>331</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="14">
+        <v>384</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>6404</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K127" s="14">
+        <v>437</v>
+      </c>
+      <c r="L127" s="14" t="s">
+        <v>6435</v>
+      </c>
+      <c r="M127" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N127" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="14">
+        <v>332</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>6367</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F128" s="14">
+        <v>385</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K128" s="14">
+        <v>438</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>6436</v>
+      </c>
+      <c r="M128" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N128" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="14">
+        <v>333</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>6368</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F129" s="14">
+        <v>386</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I129" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K129" s="14">
+        <v>439</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>6437</v>
+      </c>
+      <c r="M129" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N129" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="14">
+        <v>334</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>6369</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="14">
+        <v>387</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>6405</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I130" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K130" s="14">
+        <v>440</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>6438</v>
+      </c>
+      <c r="M130" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N130" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="14">
+        <v>335</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F131" s="14">
+        <v>388</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I131" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K131" s="14">
+        <v>441</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>6439</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N131" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="14">
+        <v>336</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>6370</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F132" s="14">
+        <v>389</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>6406</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I132" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K132" s="14">
+        <v>442</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N132" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="14">
+        <v>337</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>6371</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F133" s="14">
+        <v>390</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>6407</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I133" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K133" s="14">
+        <v>443</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>6440</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N133" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="14">
+        <v>338</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>6372</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F134" s="14">
+        <v>391</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I134" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K134" s="14">
+        <v>444</v>
+      </c>
+      <c r="L134" s="14" t="s">
+        <v>6441</v>
+      </c>
+      <c r="M134" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N134" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="14">
+        <v>339</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>6373</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F135" s="14">
+        <v>392</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>6408</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K135" s="14">
+        <v>445</v>
+      </c>
+      <c r="L135" s="14" t="s">
+        <v>6442</v>
+      </c>
+      <c r="M135" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="14">
+        <v>340</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F136" s="14">
+        <v>393</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K136" s="14">
+        <v>446</v>
+      </c>
+      <c r="L136" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M136" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N136" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="14">
+        <v>341</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>6375</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" s="14">
+        <v>394</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>6409</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K137" s="14">
+        <v>447</v>
+      </c>
+      <c r="L137" s="14" t="s">
+        <v>6443</v>
+      </c>
+      <c r="M137" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N137" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="14">
+        <v>342</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F138" s="14">
+        <v>395</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>6410</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I138" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K138" s="14">
+        <v>448</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>6444</v>
+      </c>
+      <c r="M138" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N138" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="14">
+        <v>343</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>6376</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" s="14">
+        <v>396</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>6411</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I139" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K139" s="14">
+        <v>449</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>6445</v>
+      </c>
+      <c r="M139" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N139" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="14">
+        <v>344</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="14">
+        <v>397</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K140" s="14">
+        <v>450</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>6446</v>
+      </c>
+      <c r="M140" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N140" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="14">
+        <v>345</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>6378</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" s="14">
+        <v>398</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K141" s="14">
+        <v>451</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>6447</v>
+      </c>
+      <c r="M141" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N141" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="14">
+        <v>346</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F142" s="14">
+        <v>399</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>6412</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I142" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K142" s="14">
+        <v>452</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>6448</v>
+      </c>
+      <c r="M142" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N142" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="14">
+        <v>347</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>6379</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" s="14">
+        <v>400</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>6413</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I143" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K143" s="14">
+        <v>453</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>6449</v>
+      </c>
+      <c r="M143" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N143" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="14">
+        <v>348</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F144" s="14">
+        <v>401</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>6414</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I144" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K144" s="14">
+        <v>454</v>
+      </c>
+      <c r="L144" s="14" t="s">
+        <v>6450</v>
+      </c>
+      <c r="M144" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N144" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="14">
+        <v>349</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>6381</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="14">
+        <v>402</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I145" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K145" s="14">
+        <v>455</v>
+      </c>
+      <c r="L145" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M145" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N145" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146" s="14">
+        <v>350</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>6382</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D146" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F146" s="14">
+        <v>403</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I146" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K146" s="14">
+        <v>456</v>
+      </c>
+      <c r="L146" s="14" t="s">
+        <v>6451</v>
+      </c>
+      <c r="M146" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N146" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="14">
+        <v>351</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="14">
+        <v>404</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>6415</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I147" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K147" s="14">
+        <v>457</v>
+      </c>
+      <c r="L147" s="14" t="s">
+        <v>6452</v>
+      </c>
+      <c r="M147" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N147" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="14">
+        <v>352</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>6383</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="14">
+        <v>405</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I148" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K148" s="14">
+        <v>458</v>
+      </c>
+      <c r="L148" s="14" t="s">
+        <v>6453</v>
+      </c>
+      <c r="M148" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N148" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="14">
+        <v>353</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>6384</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="14">
+        <v>406</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I149" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K149" s="14">
+        <v>459</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M149" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N149" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="14">
+        <v>354</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="14">
+        <v>407</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>6416</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K150" s="14">
+        <v>460</v>
+      </c>
+      <c r="L150" s="14" t="s">
+        <v>6454</v>
+      </c>
+      <c r="M150" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N150" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="14">
+        <v>355</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>6385</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" s="14">
+        <v>408</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I151" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K151" s="14">
+        <v>461</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M151" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N151" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="14">
+        <v>356</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>6386</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F152" s="14">
+        <v>409</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>6417</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I152" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K152" s="14">
+        <v>462</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>6455</v>
+      </c>
+      <c r="M152" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N152" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="14">
+        <v>357</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>6387</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" s="14">
+        <v>410</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>6418</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K153" s="14">
+        <v>463</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>6456</v>
+      </c>
+      <c r="M153" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N153" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>358</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>6388</v>
+      </c>
+      <c r="C154" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F154" s="14">
+        <v>411</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>6419</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K154" s="14">
+        <v>464</v>
+      </c>
+      <c r="L154" s="14" t="s">
+        <v>6457</v>
+      </c>
+      <c r="M154" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N154" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>359</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" s="14">
+        <v>412</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I155" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K155" s="14">
+        <v>465</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>6458</v>
+      </c>
+      <c r="M155" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N155" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>360</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>6389</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" s="14">
+        <v>413</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I156" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K156" s="14">
+        <v>466</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>6459</v>
+      </c>
+      <c r="M156" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N156" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" s="14">
+        <v>361</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F157" s="14">
+        <v>414</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>6420</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K157" s="14">
+        <v>467</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>6460</v>
+      </c>
+      <c r="M157" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N157" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" s="14">
+        <v>362</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>6390</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F158" s="14">
+        <v>415</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>6421</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I158" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K158" s="14">
+        <v>468</v>
+      </c>
+      <c r="L158" s="14" t="s">
+        <v>6461</v>
+      </c>
+      <c r="M158" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N158" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="14">
+        <v>469</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="14">
+        <v>481</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>6470</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I159" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K159" s="14">
+        <v>493</v>
+      </c>
+      <c r="L159" s="14" t="s">
+        <v>6480</v>
+      </c>
+      <c r="M159" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N159" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160" s="14">
+        <v>470</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>6462</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F160" s="14">
+        <v>482</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>6471</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K160" s="14">
+        <v>494</v>
+      </c>
+      <c r="L160" s="14" t="s">
+        <v>6481</v>
+      </c>
+      <c r="M160" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N160" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" s="14">
+        <v>471</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F161" s="14">
+        <v>483</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>6472</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I161" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K161" s="14">
+        <v>495</v>
+      </c>
+      <c r="L161" s="14" t="s">
+        <v>6482</v>
+      </c>
+      <c r="M161" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N161" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" s="14">
+        <v>472</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F162" s="14">
+        <v>484</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>6473</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I162" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K162" s="14">
+        <v>496</v>
+      </c>
+      <c r="L162" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="M162" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N162" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" s="14">
+        <v>473</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>6463</v>
+      </c>
+      <c r="C163" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F163" s="14">
+        <v>485</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>6474</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K163" s="14">
+        <v>497</v>
+      </c>
+      <c r="L163" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M163" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N163" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" s="14">
+        <v>474</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F164" s="14">
+        <v>486</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K164" s="14">
+        <v>498</v>
+      </c>
+      <c r="L164" s="14" t="s">
+        <v>6483</v>
+      </c>
+      <c r="M164" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N164" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" s="14">
+        <v>475</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>6465</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D165" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F165" s="14">
+        <v>487</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>6475</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I165" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K165" s="14">
+        <v>499</v>
+      </c>
+      <c r="L165" s="14" t="s">
+        <v>6484</v>
+      </c>
+      <c r="M165" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N165" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" s="14">
+        <v>476</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F166" s="14">
+        <v>488</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>6476</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I166" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K166" s="14">
+        <v>500</v>
+      </c>
+      <c r="L166" s="14" t="s">
+        <v>6485</v>
+      </c>
+      <c r="M166" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="N166" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" s="14">
+        <v>477</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>6466</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F167" s="14">
+        <v>489</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>6477</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I167" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K167" s="20"/>
+      <c r="L167" s="20"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="20"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" s="14">
+        <v>478</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>6467</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F168" s="14">
+        <v>490</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I168" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" s="14">
+        <v>479</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>6468</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D169" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F169" s="14">
+        <v>491</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>6478</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I169" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170" s="14">
+        <v>480</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>6469</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F170" s="14">
+        <v>492</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>6479</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>6157</v>
+      </c>
+      <c r="I170" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D171" s="12"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D172" s="12"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D173" s="12"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D174" s="12"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D175" s="12"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D176" s="12"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D177" s="12"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D178" s="12"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D179" s="12"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D180" s="12"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D181" s="12"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D182" s="12"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D183" s="12"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D184" s="12"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D185" s="12"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D186" s="12"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D187" s="12"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D188" s="12"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D189" s="12"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D190" s="12"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D191" s="12"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D192" s="12"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D193" s="12"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D194" s="12"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D195" s="12"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D196" s="12"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D197" s="12"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D198" s="12"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D199" s="12"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D200" s="12"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D201" s="12"/>
+      <c r="I201" s="12"/>
+    </row>
+    <row r="202" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D202" s="12"/>
+      <c r="I202" s="12"/>
+    </row>
+    <row r="203" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D203" s="12"/>
+      <c r="I203" s="12"/>
+    </row>
+    <row r="204" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D204" s="12"/>
+      <c r="I204" s="12"/>
+    </row>
+    <row r="205" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D205" s="12"/>
+      <c r="I205" s="12"/>
+    </row>
+    <row r="206" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D206" s="12"/>
+      <c r="I206" s="12"/>
+    </row>
+    <row r="207" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D207" s="12"/>
+      <c r="I207" s="12"/>
+    </row>
+    <row r="208" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D208" s="12"/>
+      <c r="I208" s="12"/>
+    </row>
+    <row r="209" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D209" s="12"/>
+      <c r="I209" s="12"/>
+    </row>
+    <row r="210" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D210" s="12"/>
+      <c r="I210" s="12"/>
+    </row>
+    <row r="211" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D211" s="12"/>
+      <c r="I211" s="12"/>
+    </row>
+    <row r="212" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D212" s="12"/>
+      <c r="I212" s="12"/>
+    </row>
+    <row r="213" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D213" s="12"/>
+      <c r="I213" s="12"/>
+    </row>
+    <row r="214" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D214" s="12"/>
+      <c r="I214" s="12"/>
+    </row>
+    <row r="215" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D215" s="12"/>
+      <c r="I215" s="12"/>
+    </row>
+    <row r="216" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D216" s="12"/>
+      <c r="I216" s="12"/>
+    </row>
+    <row r="217" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D217" s="12"/>
+      <c r="I217" s="12"/>
+    </row>
+    <row r="218" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D218" s="12"/>
+      <c r="I218" s="12"/>
+    </row>
+    <row r="219" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D219" s="12"/>
+      <c r="I219" s="12"/>
+    </row>
+    <row r="220" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D220" s="12"/>
+      <c r="I220" s="12"/>
+    </row>
+    <row r="221" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D221" s="12"/>
+      <c r="I221" s="12"/>
+    </row>
+    <row r="222" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D222" s="12"/>
+      <c r="I222" s="12"/>
+    </row>
+    <row r="223" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D223" s="12"/>
+      <c r="I223" s="12"/>
+    </row>
+    <row r="224" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D224" s="12"/>
+      <c r="I224" s="12"/>
+    </row>
+    <row r="225" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D225" s="12"/>
+      <c r="I225" s="12"/>
+    </row>
+    <row r="226" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D226" s="12"/>
+      <c r="I226" s="12"/>
+    </row>
+    <row r="227" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D227" s="12"/>
+      <c r="I227" s="12"/>
+    </row>
+    <row r="228" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D228" s="12"/>
+      <c r="I228" s="12"/>
+    </row>
+    <row r="229" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D229" s="12"/>
+      <c r="I229" s="12"/>
+    </row>
+    <row r="230" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D230" s="12"/>
+      <c r="I230" s="12"/>
+    </row>
+    <row r="231" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D231" s="12"/>
+      <c r="I231" s="12"/>
+    </row>
+    <row r="232" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D232" s="12"/>
+      <c r="I232" s="12"/>
+    </row>
+    <row r="233" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D233" s="12"/>
+      <c r="I233" s="12"/>
+    </row>
+    <row r="234" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D234" s="12"/>
+      <c r="I234" s="12"/>
+    </row>
+    <row r="235" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D235" s="12"/>
+      <c r="I235" s="12"/>
+    </row>
+    <row r="236" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D236" s="12"/>
+      <c r="I236" s="12"/>
+    </row>
+    <row r="237" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D237" s="12"/>
+      <c r="I237" s="12"/>
+    </row>
+    <row r="238" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D238" s="12"/>
+      <c r="I238" s="12"/>
+    </row>
+    <row r="239" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D239" s="12"/>
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D240" s="12"/>
+      <c r="I240" s="12"/>
+    </row>
+    <row r="241" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D241" s="12"/>
+      <c r="I241" s="12"/>
+    </row>
+    <row r="242" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D242" s="12"/>
+      <c r="I242" s="12"/>
+    </row>
+    <row r="243" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D243" s="12"/>
+      <c r="I243" s="12"/>
+    </row>
+    <row r="244" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D244" s="12"/>
+      <c r="I244" s="12"/>
+    </row>
+    <row r="245" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D245" s="12"/>
+      <c r="I245" s="12"/>
+    </row>
+    <row r="246" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D246" s="12"/>
+      <c r="I246" s="12"/>
+    </row>
+    <row r="247" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D247" s="12"/>
+      <c r="I247" s="12"/>
+    </row>
+    <row r="248" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D248" s="12"/>
+      <c r="I248" s="12"/>
+    </row>
+    <row r="249" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D249" s="12"/>
+      <c r="I249" s="12"/>
+    </row>
+    <row r="250" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D250" s="12"/>
+      <c r="I250" s="12"/>
+    </row>
+    <row r="251" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D251" s="12"/>
+      <c r="I251" s="12"/>
+    </row>
+    <row r="252" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D252" s="12"/>
+      <c r="I252" s="12"/>
+    </row>
+    <row r="253" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D253" s="12"/>
+      <c r="I253" s="12"/>
+    </row>
+    <row r="254" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D254" s="12"/>
+      <c r="I254" s="12"/>
+    </row>
+    <row r="255" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D255" s="12"/>
+      <c r="I255" s="12"/>
+    </row>
+    <row r="256" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D256" s="12"/>
+      <c r="I256" s="12"/>
+    </row>
+    <row r="257" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D257" s="12"/>
+      <c r="I257" s="12"/>
+    </row>
+    <row r="258" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D258" s="12"/>
+      <c r="I258" s="12"/>
+    </row>
+    <row r="259" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D259" s="12"/>
+      <c r="I259" s="12"/>
+    </row>
+    <row r="260" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D260" s="12"/>
+      <c r="I260" s="12"/>
+    </row>
+    <row r="261" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D261" s="12"/>
+      <c r="I261" s="12"/>
+    </row>
+    <row r="262" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D262" s="12"/>
+      <c r="I262" s="12"/>
+    </row>
+    <row r="263" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D263" s="12"/>
+      <c r="I263" s="12"/>
+    </row>
+    <row r="264" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D264" s="12"/>
+      <c r="I264" s="12"/>
+    </row>
+    <row r="265" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D265" s="12"/>
+      <c r="I265" s="12"/>
+    </row>
+    <row r="266" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D266" s="12"/>
+      <c r="I266" s="12"/>
+    </row>
+    <row r="267" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D267" s="12"/>
+      <c r="I267" s="12"/>
+    </row>
+    <row r="268" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D268" s="12"/>
+      <c r="I268" s="12"/>
+    </row>
+    <row r="269" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D269" s="12"/>
+      <c r="I269" s="12"/>
+    </row>
+    <row r="270" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D270" s="12"/>
+      <c r="I270" s="12"/>
+    </row>
+    <row r="271" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D271" s="12"/>
+      <c r="I271" s="12"/>
+    </row>
+    <row r="272" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D272" s="12"/>
+      <c r="I272" s="12"/>
+    </row>
+    <row r="273" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D273" s="12"/>
+      <c r="I273" s="12"/>
+    </row>
+    <row r="274" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D274" s="12"/>
+      <c r="I274" s="12"/>
+    </row>
+    <row r="275" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D275" s="12"/>
+      <c r="I275" s="12"/>
+    </row>
+    <row r="276" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D276" s="12"/>
+      <c r="I276" s="12"/>
+    </row>
+    <row r="277" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D277" s="12"/>
+      <c r="I277" s="12"/>
+    </row>
+    <row r="278" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D278" s="12"/>
+      <c r="I278" s="12"/>
+    </row>
+    <row r="279" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D279" s="12"/>
+      <c r="I279" s="12"/>
+    </row>
+    <row r="280" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D280" s="12"/>
+      <c r="I280" s="12"/>
+    </row>
+    <row r="281" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D281" s="12"/>
+      <c r="I281" s="12"/>
+    </row>
+    <row r="282" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D282" s="12"/>
+      <c r="I282" s="12"/>
+    </row>
+    <row r="283" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D283" s="12"/>
+      <c r="I283" s="12"/>
+    </row>
+    <row r="284" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D284" s="12"/>
+      <c r="I284" s="12"/>
+    </row>
+    <row r="285" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D285" s="12"/>
+      <c r="I285" s="12"/>
+    </row>
+    <row r="286" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D286" s="12"/>
+      <c r="I286" s="12"/>
+    </row>
+    <row r="287" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D287" s="12"/>
+      <c r="I287" s="12"/>
+    </row>
+    <row r="288" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D288" s="12"/>
+      <c r="I288" s="12"/>
+    </row>
+    <row r="289" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D289" s="12"/>
+      <c r="I289" s="12"/>
+    </row>
+    <row r="290" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D290" s="12"/>
+      <c r="I290" s="12"/>
+    </row>
+    <row r="291" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D291" s="12"/>
+      <c r="I291" s="12"/>
+    </row>
+    <row r="292" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D292" s="12"/>
+      <c r="I292" s="12"/>
+    </row>
+    <row r="293" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D293" s="12"/>
+      <c r="I293" s="12"/>
+    </row>
+    <row r="294" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D294" s="12"/>
+      <c r="I294" s="12"/>
+    </row>
+    <row r="295" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D295" s="12"/>
+      <c r="I295" s="12"/>
+    </row>
+    <row r="296" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D296" s="12"/>
+      <c r="I296" s="12"/>
+    </row>
+    <row r="297" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D297" s="12"/>
+      <c r="I297" s="12"/>
+    </row>
+    <row r="298" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D298" s="12"/>
+      <c r="I298" s="12"/>
+    </row>
+    <row r="299" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D299" s="12"/>
+      <c r="I299" s="12"/>
+    </row>
+    <row r="300" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D300" s="12"/>
+      <c r="I300" s="12"/>
+    </row>
+    <row r="301" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D301" s="12"/>
+      <c r="I301" s="12"/>
+    </row>
+    <row r="302" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D302" s="12"/>
+      <c r="I302" s="12"/>
+    </row>
+    <row r="303" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D303" s="12"/>
+      <c r="I303" s="12"/>
+    </row>
+    <row r="304" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D304" s="12"/>
+      <c r="I304" s="12"/>
+    </row>
+    <row r="305" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D305" s="12"/>
+      <c r="I305" s="12"/>
+    </row>
+    <row r="306" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D306" s="12"/>
+      <c r="I306" s="12"/>
+    </row>
+    <row r="307" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D307" s="12"/>
+      <c r="I307" s="12"/>
+    </row>
+    <row r="308" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D308" s="12"/>
+      <c r="I308" s="12"/>
+    </row>
+    <row r="309" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D309" s="12"/>
+      <c r="I309" s="12"/>
+    </row>
+    <row r="310" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D310" s="12"/>
+      <c r="I310" s="12"/>
+    </row>
+    <row r="311" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D311" s="12"/>
+      <c r="I311" s="12"/>
+    </row>
+    <row r="312" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D312" s="12"/>
+      <c r="I312" s="12"/>
+    </row>
+    <row r="313" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D313" s="12"/>
+      <c r="I313" s="12"/>
+    </row>
+    <row r="314" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D314" s="12"/>
+      <c r="I314" s="12"/>
+    </row>
+    <row r="315" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D315" s="12"/>
+      <c r="I315" s="12"/>
+    </row>
+    <row r="316" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D316" s="12"/>
+      <c r="I316" s="12"/>
+    </row>
+    <row r="317" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D317" s="12"/>
+      <c r="I317" s="12"/>
+    </row>
+    <row r="318" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D318" s="12"/>
+      <c r="I318" s="12"/>
+    </row>
+    <row r="319" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D319" s="12"/>
+      <c r="I319" s="12"/>
+    </row>
+    <row r="320" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D320" s="12"/>
+      <c r="I320" s="12"/>
+    </row>
+    <row r="321" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D321" s="12"/>
+      <c r="I321" s="12"/>
+    </row>
+    <row r="322" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D322" s="12"/>
+      <c r="I322" s="12"/>
+    </row>
+    <row r="323" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D323" s="12"/>
+      <c r="I323" s="12"/>
+    </row>
+    <row r="324" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D324" s="12"/>
+      <c r="I324" s="12"/>
+    </row>
+    <row r="325" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D325" s="12"/>
+      <c r="I325" s="12"/>
+    </row>
+    <row r="326" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D326" s="12"/>
+      <c r="I326" s="12"/>
+    </row>
+    <row r="327" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D327" s="12"/>
+      <c r="I327" s="12"/>
+    </row>
+    <row r="328" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D328" s="12"/>
+      <c r="I328" s="12"/>
+    </row>
+    <row r="329" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D329" s="12"/>
+      <c r="I329" s="12"/>
+    </row>
+    <row r="330" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D330" s="12"/>
+      <c r="I330" s="12"/>
+    </row>
+    <row r="331" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D331" s="12"/>
+      <c r="I331" s="12"/>
+    </row>
+    <row r="332" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D332" s="12"/>
+      <c r="I332" s="12"/>
+    </row>
+    <row r="333" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D333" s="12"/>
+      <c r="I333" s="12"/>
+    </row>
+    <row r="334" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D334" s="12"/>
+      <c r="I334" s="12"/>
+    </row>
+    <row r="335" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D335" s="12"/>
+      <c r="I335" s="12"/>
+    </row>
+    <row r="336" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D336" s="12"/>
+      <c r="I336" s="12"/>
+    </row>
+    <row r="337" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D337" s="12"/>
+      <c r="I337" s="12"/>
+    </row>
+    <row r="338" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D338" s="12"/>
+      <c r="I338" s="12"/>
+    </row>
+    <row r="339" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D339" s="12"/>
+      <c r="I339" s="12"/>
+    </row>
+    <row r="340" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D340" s="12"/>
+      <c r="I340" s="12"/>
+    </row>
+    <row r="341" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D341" s="12"/>
+      <c r="I341" s="12"/>
+    </row>
+    <row r="342" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D342" s="12"/>
+      <c r="I342" s="12"/>
+    </row>
+    <row r="343" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D343" s="12"/>
+      <c r="I343" s="12"/>
+    </row>
+    <row r="344" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D344" s="12"/>
+      <c r="I344" s="12"/>
+    </row>
+    <row r="345" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D345" s="12"/>
+      <c r="I345" s="12"/>
+    </row>
+    <row r="346" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D346" s="12"/>
+      <c r="I346" s="12"/>
+    </row>
+    <row r="347" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D347" s="12"/>
+      <c r="I347" s="12"/>
+    </row>
+    <row r="348" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D348" s="12"/>
+      <c r="I348" s="12"/>
+    </row>
+    <row r="349" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D349" s="12"/>
+      <c r="I349" s="12"/>
+    </row>
+    <row r="350" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D350" s="12"/>
+      <c r="I350" s="12"/>
+    </row>
+    <row r="351" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D351" s="12"/>
+      <c r="I351" s="12"/>
+    </row>
+    <row r="352" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D352" s="12"/>
+      <c r="I352" s="12"/>
+    </row>
+    <row r="353" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D353" s="12"/>
+      <c r="I353" s="12"/>
+    </row>
+    <row r="354" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D354" s="12"/>
+      <c r="I354" s="12"/>
+    </row>
+    <row r="355" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D355" s="12"/>
+      <c r="I355" s="12"/>
+    </row>
+    <row r="356" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D356" s="12"/>
+      <c r="I356" s="12"/>
+    </row>
+    <row r="357" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D357" s="12"/>
+      <c r="I357" s="12"/>
+    </row>
+    <row r="358" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D358" s="12"/>
+      <c r="I358" s="12"/>
+    </row>
+    <row r="359" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D359" s="12"/>
+      <c r="I359" s="12"/>
+    </row>
+    <row r="360" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D360" s="12"/>
+      <c r="I360" s="12"/>
+    </row>
+    <row r="361" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D361" s="12"/>
+      <c r="I361" s="12"/>
+    </row>
+    <row r="362" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D362" s="12"/>
+      <c r="I362" s="12"/>
+    </row>
+    <row r="363" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D363" s="12"/>
+      <c r="I363" s="12"/>
+    </row>
+    <row r="364" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D364" s="12"/>
+      <c r="I364" s="12"/>
+    </row>
+    <row r="365" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D365" s="12"/>
+      <c r="I365" s="12"/>
+    </row>
+    <row r="366" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D366" s="12"/>
+      <c r="I366" s="12"/>
+    </row>
+    <row r="367" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D367" s="12"/>
+      <c r="I367" s="12"/>
+    </row>
+    <row r="368" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D368" s="12"/>
+      <c r="I368" s="12"/>
+    </row>
+    <row r="369" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D369" s="12"/>
+      <c r="I369" s="12"/>
+    </row>
+    <row r="370" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D370" s="12"/>
+      <c r="I370" s="12"/>
+    </row>
+    <row r="371" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D371" s="12"/>
+      <c r="I371" s="12"/>
+    </row>
+    <row r="372" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D372" s="12"/>
+      <c r="I372" s="12"/>
+    </row>
+    <row r="373" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D373" s="12"/>
+      <c r="I373" s="12"/>
+    </row>
+    <row r="374" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D374" s="12"/>
+      <c r="I374" s="12"/>
+    </row>
+    <row r="375" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D375" s="12"/>
+      <c r="I375" s="12"/>
+    </row>
+    <row r="376" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D376" s="12"/>
+      <c r="I376" s="12"/>
+    </row>
+    <row r="377" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D377" s="12"/>
+      <c r="I377" s="12"/>
+    </row>
+    <row r="378" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D378" s="12"/>
+      <c r="I378" s="12"/>
+    </row>
+    <row r="379" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D379" s="12"/>
+      <c r="I379" s="12"/>
+    </row>
+    <row r="380" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D380" s="12"/>
+      <c r="I380" s="12"/>
+    </row>
+    <row r="381" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D381" s="12"/>
+      <c r="I381" s="12"/>
+    </row>
+    <row r="382" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D382" s="12"/>
+      <c r="I382" s="12"/>
+    </row>
+    <row r="383" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D383" s="12"/>
+      <c r="I383" s="12"/>
+    </row>
+    <row r="384" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D384" s="12"/>
+      <c r="I384" s="12"/>
+    </row>
+    <row r="385" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D385" s="12"/>
+      <c r="I385" s="12"/>
+    </row>
+    <row r="386" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D386" s="12"/>
+      <c r="I386" s="12"/>
+    </row>
+    <row r="387" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D387" s="12"/>
+      <c r="I387" s="12"/>
+    </row>
+    <row r="388" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D388" s="12"/>
+      <c r="I388" s="12"/>
+    </row>
+    <row r="389" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D389" s="12"/>
+      <c r="I389" s="12"/>
+    </row>
+    <row r="390" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D390" s="12"/>
+      <c r="I390" s="12"/>
+    </row>
+    <row r="391" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D391" s="12"/>
+      <c r="I391" s="12"/>
+    </row>
+    <row r="392" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D392" s="12"/>
+      <c r="I392" s="12"/>
+    </row>
+    <row r="393" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D393" s="12"/>
+      <c r="I393" s="12"/>
+    </row>
+    <row r="394" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D394" s="12"/>
+      <c r="I394" s="12"/>
+    </row>
+    <row r="395" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D395" s="12"/>
+      <c r="I395" s="12"/>
+    </row>
+    <row r="396" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D396" s="12"/>
+      <c r="I396" s="12"/>
+    </row>
+    <row r="397" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D397" s="12"/>
+      <c r="I397" s="12"/>
+    </row>
+    <row r="398" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D398" s="12"/>
+      <c r="I398" s="12"/>
+    </row>
+    <row r="399" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D399" s="12"/>
+      <c r="I399" s="12"/>
+    </row>
+    <row r="400" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D400" s="12"/>
+      <c r="I400" s="12"/>
+    </row>
+    <row r="401" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D401" s="12"/>
+      <c r="I401" s="12"/>
+    </row>
+    <row r="402" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D402" s="12"/>
+      <c r="I402" s="12"/>
+    </row>
+    <row r="403" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I403" s="12"/>
+    </row>
+    <row r="404" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I404" s="12"/>
+    </row>
+    <row r="405" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I405" s="12"/>
+    </row>
+    <row r="406" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I406" s="12"/>
+    </row>
+    <row r="407" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I407" s="12"/>
+    </row>
+    <row r="408" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I408" s="12"/>
+    </row>
+    <row r="409" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I409" s="12"/>
+    </row>
+    <row r="410" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I410" s="12"/>
+    </row>
+    <row r="411" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I411" s="12"/>
+    </row>
+    <row r="412" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I412" s="12"/>
+    </row>
+    <row r="413" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I413" s="12"/>
+    </row>
+    <row r="414" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I414" s="12"/>
+    </row>
+    <row r="415" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I415" s="12"/>
+    </row>
+    <row r="416" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I416" s="12"/>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I417" s="12"/>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I418" s="12"/>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I419" s="12"/>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I420" s="12"/>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I421" s="12"/>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I422" s="12"/>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I423" s="12"/>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I424" s="12"/>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I425" s="12"/>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I426" s="12"/>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I427" s="12"/>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I428" s="12"/>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I429" s="12"/>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I430" s="12"/>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I431" s="12"/>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I432" s="12"/>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I433" s="12"/>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I434" s="12"/>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I435" s="12"/>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I436" s="12"/>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I437" s="12"/>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I438" s="12"/>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I439" s="12"/>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I440" s="12"/>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I441" s="12"/>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I442" s="12"/>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I443" s="12"/>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I444" s="12"/>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I445" s="12"/>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I446" s="12"/>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I447" s="12"/>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I448" s="12"/>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I449" s="12"/>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I450" s="12"/>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I451" s="12"/>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I452" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5849"/>
   <sheetViews>
-    <sheetView topLeftCell="A2308" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2325" sqref="C2325"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
